--- a/data/trans_camb/P19-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,9</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,63; -0,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,22; -0,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,66; 0,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 3,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 4,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,02; -3,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,83; 1,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,7; 1,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,38; -2,54</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,65%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,35; -2,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,55; -0,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,32; 1,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,34; 17,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,31; 19,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,33; -13,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,71; 5,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,19; 8,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,24; -12,19</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 3,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,44; 8,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 2,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,46; -0,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 4,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,04; -3,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 0,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 5,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,89; -0,62</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,46%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,87; 12,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,07; 36,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,65; 12,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,27; -2,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,89; 12,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,96; -8,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,5; 1,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,76; 19,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,47; -2,14</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 11,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 13,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 11,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 11,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 10,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,26; 14,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 9,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 10,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,28; 10,93</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,78%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 41,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,52; 48,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 40,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,95; 33,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,19; 32,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,75; 43,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 31,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,68; 35,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,21; 34,85</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 1,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,14; 6,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 3,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 1,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 5,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 1,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 0,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,02; 5,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 1,86</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,31; 7,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,3; 27,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,16; 15,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,0; 3,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,52; 17,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,02; 4,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,78; 3,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,06; 19,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,08; 6,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,9</t>
+          <t>-4,49</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 0,34</t>
+          <t>-7,18; 1,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,02; -3,06</t>
+          <t>-8,7; -2,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,38; -2,54</t>
+          <t>-6,99; -2,07</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,33%</t>
+          <t>-14,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-26,33%</t>
+          <t>-25,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-22,65%</t>
+          <t>-20,74%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 1,56</t>
+          <t>-32,39; 5,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,33; -13,47</t>
+          <t>-35,46; -12,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,24; -12,19</t>
+          <t>-30,51; -9,85</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-4,52</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 2,98</t>
+          <t>-10,35; 2,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,04; -3,09</t>
+          <t>-16,19; -2,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; -0,62</t>
+          <t>-9,76; -0,8</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>-20,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-9,46%</t>
+          <t>-14,51%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 12,62</t>
+          <t>-38,12; 8,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,96; -8,86</t>
+          <t>-42,78; -7,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,47; -2,14</t>
+          <t>-31,18; -2,8</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>7,24</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 11,23</t>
+          <t>-0,81; 11,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 14,65</t>
+          <t>3,57; 14,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 10,93</t>
+          <t>3,15; 11,03</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>21,59%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 40,08</t>
+          <t>-1,82; 40,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,75; 43,3</t>
+          <t>8,6; 43,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,21; 34,85</t>
+          <t>8,61; 34,53</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,61</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,73</t>
+          <t>-6,12; 3,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,31</t>
+          <t>-7,75; 1,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,86</t>
+          <t>-5,18; 1,54</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,85%</t>
+          <t>-4,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>-2,17%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 15,79</t>
+          <t>-23,71; 12,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 4,21</t>
+          <t>-23,67; 5,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 6,67</t>
+          <t>-17,94; 5,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,37</t>
+          <t>-7,56; -0,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; -0,02</t>
+          <t>-6,8; 0,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 1,0</t>
+          <t>-7,09; 0,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 3,77</t>
+          <t>-2,69; 3,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 4,21</t>
+          <t>-2,66; 4,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,7; -2,7</t>
+          <t>-8,74; -2,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 1,08</t>
+          <t>-3,71; 1,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,73</t>
+          <t>-3,44; 1,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,99; -2,07</t>
+          <t>-6,93; -1,88</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,35; -2,02</t>
+          <t>-33,89; -4,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,55; -0,19</t>
+          <t>-31,01; 3,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,39; 5,66</t>
+          <t>-32,37; 4,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 17,86</t>
+          <t>-10,96; 17,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 19,91</t>
+          <t>-11,31; 22,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,46; -12,56</t>
+          <t>-36,12; -10,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 5,57</t>
+          <t>-16,24; 6,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 8,47</t>
+          <t>-15,25; 7,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,51; -9,85</t>
+          <t>-30,34; -9,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 3,12</t>
+          <t>-2,74; 2,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 8,68</t>
+          <t>2,43; 8,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 2,1</t>
+          <t>-9,66; 2,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -0,81</t>
+          <t>-7,56; -0,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,3</t>
+          <t>-2,4; 4,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,19; -2,51</t>
+          <t>-16,84; -2,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 0,33</t>
+          <t>-4,07; 0,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,6</t>
+          <t>1,26; 5,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,76; -0,8</t>
+          <t>-9,73; -0,68</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 12,92</t>
+          <t>-10,38; 12,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,07; 36,29</t>
+          <t>9,22; 33,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 8,25</t>
+          <t>-37,36; 9,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -2,4</t>
+          <t>-19,49; -1,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 12,21</t>
+          <t>-6,09; 12,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,78; -7,01</t>
+          <t>-44,49; -7,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 1,1</t>
+          <t>-12,59; 1,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 19,04</t>
+          <t>3,9; 19,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,18; -2,8</t>
+          <t>-30,72; -2,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 11,75</t>
+          <t>-0,66; 11,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 13,61</t>
+          <t>2,01; 14,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 11,07</t>
+          <t>-0,9; 10,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 11,48</t>
+          <t>-2,3; 10,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 10,75</t>
+          <t>-1,85; 10,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 14,8</t>
+          <t>3,44; 14,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,92</t>
+          <t>0,83; 9,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 10,92</t>
+          <t>1,97; 11,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 11,03</t>
+          <t>3,3; 10,8</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 41,63</t>
+          <t>-1,96; 43,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,52; 48,97</t>
+          <t>5,89; 51,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 40,89</t>
+          <t>-2,73; 38,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 33,72</t>
+          <t>-5,65; 32,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 32,09</t>
+          <t>-4,46; 32,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,6; 43,85</t>
+          <t>8,56; 46,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 31,04</t>
+          <t>2,44; 31,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,68; 35,4</t>
+          <t>5,43; 35,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,61; 34,53</t>
+          <t>8,86; 34,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 1,86</t>
+          <t>-2,34; 1,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,59</t>
+          <t>1,99; 6,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 3,13</t>
+          <t>-5,89; 3,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,18</t>
+          <t>-3,43; 1,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,31</t>
+          <t>0,81; 5,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 1,66</t>
+          <t>-7,61; 1,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,91</t>
+          <t>-2,22; 0,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,35</t>
+          <t>2,1; 5,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 1,54</t>
+          <t>-4,22; 1,89</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 7,93</t>
+          <t>-8,98; 7,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,3; 27,55</t>
+          <t>7,59; 27,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 12,79</t>
+          <t>-23,36; 12,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 3,91</t>
+          <t>-10,56; 4,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,52; 17,56</t>
+          <t>2,51; 18,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,67; 5,43</t>
+          <t>-23,74; 5,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 3,28</t>
+          <t>-7,7; 3,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,06; 19,46</t>
+          <t>7,31; 19,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 5,46</t>
+          <t>-14,76; 6,78</t>
         </is>
       </c>
     </row>
